--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_57_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_57_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="83.38988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="83.38988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="61.389887640449444"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2016-08-09T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1209641</v>
       </c>
@@ -1102,232 +1621,74 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>36733</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>BMOU5103180</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>HIJAU SAMUDRA004/2016/1869</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>2016/1869</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="d">
-        <v>2016-08-09T00:00:00</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>846</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="0" t="n">
-        <v>1209641</v>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST &amp; TIRE MARK.</t>
         </is>
       </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>36733</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>BMOU5103180</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>HIJAU SAMUDRA004/2016/1869</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>2016/1869</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="d">
-        <v>2016-08-09T00:00:00</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0" t="n">
-        <v>846</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="0" t="n">
-        <v>1209641</v>
-      </c>
-      <c r="W8" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
-        <is>
           <t>F/B BADLY DCRATCHED.</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>36734</v>
@@ -1438,120 +1799,41 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>36734</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>BSIU4029289</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>HIJAU SAMUDRA004/2016/1869</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>2016/1869</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M10" s="4" t="d">
-        <v>2016-08-09T00:00:00</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0" t="n">
-        <v>846</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="0" t="n">
-        <v>1209793</v>
-      </c>
-      <c r="W10" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y10" s="0" t="inlineStr">
-        <is>
           <t>F/BOARD DIRTY BY  DROP OIL SPOT ,SCRATCHED &amp; DUST.</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>36735</v>
@@ -1662,232 +1944,74 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>36735</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>FSCU9666851</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t>HIJAU SAMUDRA004/2016/1869</t>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t>2016/1869</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="d">
-        <v>2016-08-09T00:00:00</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0" t="n">
-        <v>846</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="0" t="n">
-        <v>1209800</v>
-      </c>
-      <c r="W12" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y12" s="0" t="inlineStr">
-        <is>
           <t>F/BOARD  BROKEN &amp; HOLE 10'X 06' + PLY WOOD MISSING 16'X 06'.</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>36735</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>FSCU9666851</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="inlineStr">
-        <is>
-          <t>HIJAU SAMUDRA004/2016/1869</t>
-        </is>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t>2016/1869</t>
-        </is>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="d">
-        <v>2016-08-09T00:00:00</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0" t="n">
-        <v>846</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="0" t="n">
-        <v>1209800</v>
-      </c>
-      <c r="W13" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y13" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY BADLY  OIL STAIN,SCRATCHED,TYER MARK &amp; BLACK STAIN DUST.</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>36736</v>
@@ -1998,120 +2122,41 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>36736</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1972530</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t>HIJAU SAMUDRA004/2016/1869</t>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t>2016/1869</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2016-08-10T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>845</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1210195</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD DUST &amp; OIL SPOT</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>36737</v>
@@ -2222,120 +2267,41 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>36737</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>FCIU8981490</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>HANSA CALYPSO</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="d">
-        <v>2016-08-12T00:00:00</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="0" t="n">
-        <v>843</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="0" t="n">
-        <v>1210813</v>
-      </c>
-      <c r="W17" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY OIL STAIN &amp; BADLY SCRATCHED </t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>36739</v>
@@ -2446,120 +2412,41 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>36739</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>SZLU9608381</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>SAIGON BRIDGE.022.2016/2019</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>2016/1799</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="d">
-        <v>2016-08-14T00:00:00</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0" t="n">
-        <v>841</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="0" t="n">
-        <v>1211362</v>
-      </c>
-      <c r="W19" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL &amp; FLOOR DIRTY.</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>36767</v>
@@ -2671,7 +2558,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>36770</v>
@@ -2783,7 +2670,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>36775</v>
@@ -2871,7 +2758,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>36776</v>
@@ -2959,7 +2846,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>36780</v>
@@ -3071,7 +2958,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>36781</v>
@@ -3182,232 +3069,74 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>36781</v>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1583590</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G26" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H26" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I26" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J26" s="0" t="inlineStr">
-        <is>
-          <t>SAIGON BRIDGE</t>
-        </is>
-      </c>
-      <c r="K26" s="0" t="inlineStr">
-        <is>
-          <t>2016/2269</t>
-        </is>
-      </c>
-      <c r="L26" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M26" s="4" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="N26" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
       <c r="O26" s="0"/>
-      <c r="P26" s="0" t="n">
-        <v>826</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="0" t="n">
-        <v>1216246</v>
-      </c>
-      <c r="W26" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y26" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL  DIRTY &amp; RUSTED.</t>
         </is>
       </c>
-      <c r="Z26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>36781</v>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1583590</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J27" s="0" t="inlineStr">
-        <is>
-          <t>SAIGON BRIDGE</t>
-        </is>
-      </c>
-      <c r="K27" s="0" t="inlineStr">
-        <is>
-          <t>2016/2269</t>
-        </is>
-      </c>
-      <c r="L27" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M27" s="4" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="N27" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
       <c r="O27" s="0"/>
-      <c r="P27" s="0" t="n">
-        <v>826</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="0" t="n">
-        <v>1216246</v>
-      </c>
-      <c r="W27" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y27" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST &amp; SCRATCHED.</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>36782</v>
@@ -3518,120 +3247,41 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>36782</v>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>HJCU4906790</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J29" s="0" t="inlineStr">
-        <is>
-          <t>SAIGON BRIDGE</t>
-        </is>
-      </c>
-      <c r="K29" s="0" t="inlineStr">
-        <is>
-          <t>2016/2269</t>
-        </is>
-      </c>
-      <c r="L29" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="N29" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
       <c r="O29" s="0"/>
-      <c r="P29" s="0" t="n">
-        <v>826</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="0" t="n">
-        <v>1216247</v>
-      </c>
-      <c r="W29" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y29" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST &amp; NORMAL OIL STAIN.</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>36783</v>
@@ -3742,120 +3392,41 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>36783</v>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1381558</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K31" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="N31" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
       <c r="O31" s="0"/>
-      <c r="P31" s="0" t="n">
-        <v>826</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="0" t="n">
-        <v>1216486</v>
-      </c>
-      <c r="W31" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y31" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>36784</v>
@@ -3943,7 +3514,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>36785</v>
@@ -4055,7 +3626,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>36786</v>
@@ -4166,456 +3737,140 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>36786</v>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1366532</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J35" s="0" t="inlineStr">
-        <is>
-          <t>SAIGON BRIDGE</t>
-        </is>
-      </c>
-      <c r="K35" s="0" t="inlineStr">
-        <is>
-          <t>2016/2269</t>
-        </is>
-      </c>
-      <c r="L35" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M35" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N35" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
       <c r="O35" s="0"/>
-      <c r="P35" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="0" t="n">
-        <v>1216561</v>
-      </c>
-      <c r="W35" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y35" s="0" t="inlineStr">
-        <is>
           <t>EXTERNAL PANEL RUSTED CORROSION.</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>36786</v>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1366532</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G36" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H36" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I36" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J36" s="0" t="inlineStr">
-        <is>
-          <t>SAIGON BRIDGE</t>
-        </is>
-      </c>
-      <c r="K36" s="0" t="inlineStr">
-        <is>
-          <t>2016/2269</t>
-        </is>
-      </c>
-      <c r="L36" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M36" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N36" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
       <c r="O36" s="0"/>
-      <c r="P36" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="0" t="n">
-        <v>1216561</v>
-      </c>
-      <c r="W36" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0"/>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y36" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR GASKET CUT 3'</t>
         </is>
       </c>
-      <c r="Z36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y36" s="0"/>
+      <c r="Z36" s="0"/>
+      <c r="AA36" s="0"/>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>36786</v>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1366532</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G37" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J37" s="0" t="inlineStr">
-        <is>
-          <t>SAIGON BRIDGE</t>
-        </is>
-      </c>
-      <c r="K37" s="0" t="inlineStr">
-        <is>
-          <t>2016/2269</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N37" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
       <c r="O37" s="0"/>
-      <c r="P37" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="0" t="n">
-        <v>1216561</v>
-      </c>
-      <c r="W37" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0"/>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y37" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD SCRATCHED AT VARIOUS PLS</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>36786</v>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1366532</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J38" s="0" t="inlineStr">
-        <is>
-          <t>SAIGON BRIDGE</t>
-        </is>
-      </c>
-      <c r="K38" s="0" t="inlineStr">
-        <is>
-          <t>2016/2269</t>
-        </is>
-      </c>
-      <c r="L38" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M38" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N38" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
       <c r="O38" s="0"/>
-      <c r="P38" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="0" t="n">
-        <v>1216561</v>
-      </c>
-      <c r="W38" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0"/>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y38" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST</t>
         </is>
       </c>
-      <c r="Z38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>36812</v>
@@ -4726,232 +3981,74 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>36812</v>
-      </c>
-      <c r="C40" s="0" t="inlineStr">
-        <is>
-          <t>TEMU6686207</t>
-        </is>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E40" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G40" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H40" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I40" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J40" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="K40" s="0" t="inlineStr">
-        <is>
-          <t>2451/2016</t>
-        </is>
-      </c>
-      <c r="L40" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M40" s="4" t="d">
-        <v>2016-10-18T00:00:00</v>
-      </c>
-      <c r="N40" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="0"/>
       <c r="O40" s="0"/>
-      <c r="P40" s="0" t="n">
-        <v>776</v>
-      </c>
-      <c r="Q40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="0" t="n">
-        <v>1229393</v>
-      </c>
-      <c r="W40" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V40" s="0"/>
+      <c r="W40" s="0"/>
       <c r="X40" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y40" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD SCROW MISSING 01  PLS + GAP 24'+ 18' +12'</t>
         </is>
       </c>
-      <c r="Z40" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA40" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB40" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y40" s="0"/>
+      <c r="Z40" s="0"/>
+      <c r="AA40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>36812</v>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>TEMU6686207</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G41" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J41" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="K41" s="0" t="inlineStr">
-        <is>
-          <t>2451/2016</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="d">
-        <v>2016-10-18T00:00:00</v>
-      </c>
-      <c r="N41" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
       <c r="O41" s="0"/>
-      <c r="P41" s="0" t="n">
-        <v>776</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="0" t="n">
-        <v>1229393</v>
-      </c>
-      <c r="W41" s="0" t="inlineStr">
-        <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
-        </is>
-      </c>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
-        </is>
-      </c>
-      <c r="Y41" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY  SAND DUST</t>
         </is>
       </c>
-      <c r="Z41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AA41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>36822</v>
@@ -5039,7 +4136,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>36863</v>
@@ -5150,232 +4247,74 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>36863</v>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1344786</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J44" s="0" t="inlineStr">
-        <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
-        </is>
-      </c>
-      <c r="K44" s="0" t="inlineStr">
-        <is>
-          <t>2016/2140</t>
-        </is>
-      </c>
-      <c r="L44" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M44" s="4" t="d">
-        <v>2016-08-25T00:00:00</v>
-      </c>
-      <c r="N44" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
       <c r="O44" s="0"/>
-      <c r="P44" s="0" t="n">
-        <v>830</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="0" t="n">
-        <v>1272738</v>
-      </c>
-      <c r="W44" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0"/>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y44" s="0" t="inlineStr">
-        <is>
           <t>RIGHT PANEL NO 10 CORROSION HOLE 03' BUT SELECON FITTING </t>
         </is>
       </c>
-      <c r="Z44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y44" s="0"/>
+      <c r="Z44" s="0"/>
+      <c r="AA44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>36863</v>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1344786</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G45" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J45" s="0" t="inlineStr">
-        <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
-        </is>
-      </c>
-      <c r="K45" s="0" t="inlineStr">
-        <is>
-          <t>2016/2140</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M45" s="4" t="d">
-        <v>2016-08-25T00:00:00</v>
-      </c>
-      <c r="N45" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
       <c r="O45" s="0"/>
-      <c r="P45" s="0" t="n">
-        <v>830</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="0" t="n">
-        <v>1272738</v>
-      </c>
-      <c r="W45" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0"/>
       <c r="X45" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y45" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST.</t>
         </is>
       </c>
-      <c r="Z45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y45" s="0"/>
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>36864</v>
@@ -5463,7 +4402,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>36867</v>
@@ -5551,7 +4490,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>36869</v>
@@ -5662,120 +4601,41 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>36869</v>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>HJCU8408922</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E49" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G49" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H49" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I49" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J49" s="0" t="inlineStr">
-        <is>
-          <t>SAIGON BRIDGE</t>
-        </is>
-      </c>
-      <c r="K49" s="0" t="inlineStr">
-        <is>
-          <t>2016/2269</t>
-        </is>
-      </c>
-      <c r="L49" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M49" s="4" t="d">
-        <v>2016-08-31T00:00:00</v>
-      </c>
-      <c r="N49" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="0"/>
       <c r="O49" s="0"/>
-      <c r="P49" s="0" t="n">
-        <v>824</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="0" t="n">
-        <v>1337082</v>
-      </c>
-      <c r="W49" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
       <c r="X49" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y49" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL SCRATCHED</t>
         </is>
       </c>
-      <c r="Z49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>36870</v>
@@ -5886,232 +4746,74 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>36870</v>
-      </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>BMOU5881252</t>
-        </is>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E51" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G51" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H51" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I51" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J51" s="0" t="inlineStr">
-        <is>
-          <t>K. BINTANG</t>
-        </is>
-      </c>
-      <c r="K51" s="0" t="inlineStr">
-        <is>
-          <t>2016/2229</t>
-        </is>
-      </c>
-      <c r="L51" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M51" s="4" t="d">
-        <v>2016-09-01T00:00:00</v>
-      </c>
-      <c r="N51" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="0"/>
       <c r="O51" s="0"/>
-      <c r="P51" s="0" t="n">
-        <v>823</v>
-      </c>
-      <c r="Q51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
       <c r="S51" s="0"/>
       <c r="T51" s="0"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="0" t="n">
-        <v>1338261</v>
-      </c>
-      <c r="W51" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
       <c r="X51" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y51" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY MUD DUST &amp; WET CONDITION</t>
         </is>
       </c>
-      <c r="Z51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y51" s="0"/>
+      <c r="Z51" s="0"/>
+      <c r="AA51" s="0"/>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>36870</v>
-      </c>
-      <c r="C52" s="0" t="inlineStr">
-        <is>
-          <t>BMOU5881252</t>
-        </is>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E52" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F52" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G52" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H52" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I52" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J52" s="0" t="inlineStr">
-        <is>
-          <t>K. BINTANG</t>
-        </is>
-      </c>
-      <c r="K52" s="0" t="inlineStr">
-        <is>
-          <t>2016/2229</t>
-        </is>
-      </c>
-      <c r="L52" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M52" s="4" t="d">
-        <v>2016-09-01T00:00:00</v>
-      </c>
-      <c r="N52" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="0"/>
       <c r="O52" s="0"/>
-      <c r="P52" s="0" t="n">
-        <v>823</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
       <c r="S52" s="0"/>
       <c r="T52" s="0"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="0" t="n">
-        <v>1338261</v>
-      </c>
-      <c r="W52" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0"/>
       <c r="X52" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y52" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
-      <c r="Z52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y52" s="0"/>
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>36874</v>
@@ -6199,7 +4901,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>36740</v>
@@ -6310,120 +5012,41 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>36740</v>
-      </c>
-      <c r="C55" s="0" t="inlineStr">
-        <is>
-          <t>TEMU6682794</t>
-        </is>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E55" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G55" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H55" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I55" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J55" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA0063/2016/1974</t>
-        </is>
-      </c>
-      <c r="K55" s="0" t="inlineStr">
-        <is>
-          <t>2016/2118</t>
-        </is>
-      </c>
-      <c r="L55" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M55" s="4" t="d">
-        <v>2016-08-15T00:00:00</v>
-      </c>
-      <c r="N55" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A55" s="0"/>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="0"/>
       <c r="O55" s="0"/>
-      <c r="P55" s="0" t="n">
-        <v>840</v>
-      </c>
-      <c r="Q55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
       <c r="S55" s="0"/>
       <c r="T55" s="0"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="0" t="n">
-        <v>1211756</v>
-      </c>
-      <c r="W55" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V55" s="0"/>
+      <c r="W55" s="0"/>
       <c r="X55" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y55" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST</t>
         </is>
       </c>
-      <c r="Z55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y55" s="0"/>
+      <c r="Z55" s="0"/>
+      <c r="AA55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>36752</v>
@@ -6535,7 +5158,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>36754</v>
@@ -6646,120 +5269,41 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>36754</v>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>HJCU2118187</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J58" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K58" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L58" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M58" s="4" t="d">
-        <v>2016-08-23T00:00:00</v>
-      </c>
-      <c r="N58" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
       <c r="O58" s="0"/>
-      <c r="P58" s="0" t="n">
-        <v>832</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="0" t="n">
-        <v>1214501</v>
-      </c>
-      <c r="W58" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
       <c r="X58" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y58" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY DUST.</t>
         </is>
       </c>
-      <c r="Z58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>36755</v>
@@ -6870,120 +5414,41 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>36755</v>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
-        <is>
-          <t>HJCU8446516</t>
-        </is>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E60" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F60" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G60" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H60" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I60" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J60" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K60" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L60" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M60" s="4" t="d">
-        <v>2016-08-23T00:00:00</v>
-      </c>
-      <c r="N60" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="0"/>
       <c r="O60" s="0"/>
-      <c r="P60" s="0" t="n">
-        <v>832</v>
-      </c>
-      <c r="Q60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
       <c r="S60" s="0"/>
       <c r="T60" s="0"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="0" t="n">
-        <v>1214536</v>
-      </c>
-      <c r="W60" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
       <c r="X60" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y60" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST</t>
         </is>
       </c>
-      <c r="Z60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y60" s="0"/>
+      <c r="Z60" s="0"/>
+      <c r="AA60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>36756</v>
@@ -7095,7 +5560,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>36761</v>
@@ -7207,7 +5672,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>36791</v>
@@ -7318,120 +5783,41 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>36791</v>
-      </c>
-      <c r="C64" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1321271</t>
-        </is>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E64" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G64" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H64" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I64" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J64" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K64" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L64" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M64" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N64" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A64" s="0"/>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="0"/>
       <c r="O64" s="0"/>
-      <c r="P64" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
       <c r="S64" s="0"/>
       <c r="T64" s="0"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="0" t="n">
-        <v>1216621</v>
-      </c>
-      <c r="W64" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0"/>
       <c r="X64" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y64" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD BLACK STAIN &amp; DUST</t>
         </is>
       </c>
-      <c r="Z64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y64" s="0"/>
+      <c r="Z64" s="0"/>
+      <c r="AA64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>36799</v>
@@ -7542,120 +5928,41 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>36799</v>
-      </c>
-      <c r="C66" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1513525</t>
-        </is>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E66" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F66" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G66" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H66" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I66" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J66" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K66" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L66" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M66" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N66" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A66" s="0"/>
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="0"/>
       <c r="O66" s="0"/>
-      <c r="P66" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P66" s="0"/>
+      <c r="Q66" s="0"/>
+      <c r="R66" s="0"/>
       <c r="S66" s="0"/>
       <c r="T66" s="0"/>
       <c r="U66" s="4"/>
-      <c r="V66" s="0" t="n">
-        <v>1216797</v>
-      </c>
-      <c r="W66" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V66" s="0"/>
+      <c r="W66" s="0"/>
       <c r="X66" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y66" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST</t>
         </is>
       </c>
-      <c r="Z66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y66" s="0"/>
+      <c r="Z66" s="0"/>
+      <c r="AA66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>36800</v>
@@ -7767,7 +6074,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>36801</v>
@@ -7878,120 +6185,41 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>36801</v>
-      </c>
-      <c r="C69" s="0" t="inlineStr">
-        <is>
-          <t>BMOU4924318</t>
-        </is>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E69" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G69" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H69" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I69" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J69" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K69" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L69" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M69" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N69" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="0"/>
       <c r="O69" s="0"/>
-      <c r="P69" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
       <c r="S69" s="0"/>
       <c r="T69" s="0"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="0" t="n">
-        <v>1216799</v>
-      </c>
-      <c r="W69" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0"/>
       <c r="X69" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y69" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST</t>
         </is>
       </c>
-      <c r="Z69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y69" s="0"/>
+      <c r="Z69" s="0"/>
+      <c r="AA69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>36802</v>
@@ -8103,7 +6331,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>36803</v>
@@ -8214,232 +6442,74 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>36803</v>
-      </c>
-      <c r="C72" s="0" t="inlineStr">
-        <is>
-          <t>GESU6845653</t>
-        </is>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E72" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F72" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G72" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H72" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I72" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J72" s="0" t="inlineStr">
-        <is>
-          <t>K. BINTANG</t>
-        </is>
-      </c>
-      <c r="K72" s="0" t="inlineStr">
-        <is>
-          <t>2016/2229</t>
-        </is>
-      </c>
-      <c r="L72" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M72" s="4" t="d">
-        <v>2016-08-31T00:00:00</v>
-      </c>
-      <c r="N72" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A72" s="0"/>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="0"/>
       <c r="O72" s="0"/>
-      <c r="P72" s="0" t="n">
-        <v>824</v>
-      </c>
-      <c r="Q72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
+      <c r="R72" s="0"/>
       <c r="S72" s="0"/>
       <c r="T72" s="0"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="0" t="n">
-        <v>1216915</v>
-      </c>
-      <c r="W72" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V72" s="0"/>
+      <c r="W72" s="0"/>
       <c r="X72" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y72" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL CUT &amp; HOLE 04"X08"</t>
         </is>
       </c>
-      <c r="Z72" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA72" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB72" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y72" s="0"/>
+      <c r="Z72" s="0"/>
+      <c r="AA72" s="0"/>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>36803</v>
-      </c>
-      <c r="C73" s="0" t="inlineStr">
-        <is>
-          <t>GESU6845653</t>
-        </is>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E73" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F73" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G73" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H73" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I73" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J73" s="0" t="inlineStr">
-        <is>
-          <t>K. BINTANG</t>
-        </is>
-      </c>
-      <c r="K73" s="0" t="inlineStr">
-        <is>
-          <t>2016/2229</t>
-        </is>
-      </c>
-      <c r="L73" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M73" s="4" t="d">
-        <v>2016-08-31T00:00:00</v>
-      </c>
-      <c r="N73" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A73" s="0"/>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0"/>
+      <c r="K73" s="0"/>
+      <c r="L73" s="0"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="0"/>
       <c r="O73" s="0"/>
-      <c r="P73" s="0" t="n">
-        <v>824</v>
-      </c>
-      <c r="Q73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+      <c r="R73" s="0"/>
       <c r="S73" s="0"/>
       <c r="T73" s="0"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="0" t="n">
-        <v>1216915</v>
-      </c>
-      <c r="W73" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V73" s="0"/>
+      <c r="W73" s="0"/>
       <c r="X73" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y73" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY MUD DUST</t>
         </is>
       </c>
-      <c r="Z73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y73" s="0"/>
+      <c r="Z73" s="0"/>
+      <c r="AA73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>36804</v>
@@ -8551,7 +6621,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>36810</v>
@@ -8662,232 +6732,74 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="B76" s="0" t="n">
-        <v>36810</v>
-      </c>
-      <c r="C76" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1338660</t>
-        </is>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E76" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F76" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G76" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H76" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I76" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J76" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="K76" s="0" t="inlineStr">
-        <is>
-          <t>2451/2016</t>
-        </is>
-      </c>
-      <c r="L76" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M76" s="4" t="d">
-        <v>2016-10-18T00:00:00</v>
-      </c>
-      <c r="N76" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A76" s="0"/>
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
+      <c r="K76" s="0"/>
+      <c r="L76" s="0"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="0"/>
       <c r="O76" s="0"/>
-      <c r="P76" s="0" t="n">
-        <v>776</v>
-      </c>
-      <c r="Q76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P76" s="0"/>
+      <c r="Q76" s="0"/>
+      <c r="R76" s="0"/>
       <c r="S76" s="0"/>
       <c r="T76" s="0"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="0" t="n">
-        <v>1229386</v>
-      </c>
-      <c r="W76" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V76" s="0"/>
+      <c r="W76" s="0"/>
       <c r="X76" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y76" s="0" t="inlineStr">
-        <is>
           <t>EXTERNAL PANEL RUSTED CORROSION</t>
         </is>
       </c>
-      <c r="Z76" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA76" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB76" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y76" s="0"/>
+      <c r="Z76" s="0"/>
+      <c r="AA76" s="0"/>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <v>36810</v>
-      </c>
-      <c r="C77" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1338660</t>
-        </is>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E77" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F77" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G77" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H77" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I77" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J77" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="K77" s="0" t="inlineStr">
-        <is>
-          <t>2451/2016</t>
-        </is>
-      </c>
-      <c r="L77" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M77" s="4" t="d">
-        <v>2016-10-18T00:00:00</v>
-      </c>
-      <c r="N77" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="0"/>
       <c r="O77" s="0"/>
-      <c r="P77" s="0" t="n">
-        <v>776</v>
-      </c>
-      <c r="Q77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
       <c r="S77" s="0"/>
       <c r="T77" s="0"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="0" t="n">
-        <v>1229386</v>
-      </c>
-      <c r="W77" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V77" s="0"/>
+      <c r="W77" s="0"/>
       <c r="X77" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y77" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR GASKET BENT 30' &amp; 30'</t>
         </is>
       </c>
-      <c r="Z77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y77" s="0"/>
+      <c r="Z77" s="0"/>
+      <c r="AA77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>36811</v>
@@ -8998,232 +6910,74 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="B79" s="0" t="n">
-        <v>36811</v>
-      </c>
-      <c r="C79" s="0" t="inlineStr">
-        <is>
-          <t>FSCU9667415</t>
-        </is>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E79" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F79" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G79" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H79" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I79" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J79" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="K79" s="0" t="inlineStr">
-        <is>
-          <t>2451/2016</t>
-        </is>
-      </c>
-      <c r="L79" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M79" s="4" t="d">
-        <v>2016-10-18T00:00:00</v>
-      </c>
-      <c r="N79" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A79" s="0"/>
+      <c r="B79" s="0"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
+      <c r="K79" s="0"/>
+      <c r="L79" s="0"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="0"/>
       <c r="O79" s="0"/>
-      <c r="P79" s="0" t="n">
-        <v>776</v>
-      </c>
-      <c r="Q79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P79" s="0"/>
+      <c r="Q79" s="0"/>
+      <c r="R79" s="0"/>
       <c r="S79" s="0"/>
       <c r="T79" s="0"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="0" t="n">
-        <v>1229388</v>
-      </c>
-      <c r="W79" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V79" s="0"/>
+      <c r="W79" s="0"/>
       <c r="X79" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y79" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR TOP GASKET CUT 6'</t>
         </is>
       </c>
-      <c r="Z79" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA79" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB79" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y79" s="0"/>
+      <c r="Z79" s="0"/>
+      <c r="AA79" s="0"/>
     </row>
     <row r="80">
-      <c r="A80" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="B80" s="0" t="n">
-        <v>36811</v>
-      </c>
-      <c r="C80" s="0" t="inlineStr">
-        <is>
-          <t>FSCU9667415</t>
-        </is>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E80" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F80" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G80" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H80" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I80" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J80" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="K80" s="0" t="inlineStr">
-        <is>
-          <t>2451/2016</t>
-        </is>
-      </c>
-      <c r="L80" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M80" s="4" t="d">
-        <v>2016-10-18T00:00:00</v>
-      </c>
-      <c r="N80" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A80" s="0"/>
+      <c r="B80" s="0"/>
+      <c r="C80" s="0"/>
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+      <c r="G80" s="0"/>
+      <c r="H80" s="0"/>
+      <c r="I80" s="0"/>
+      <c r="J80" s="0"/>
+      <c r="K80" s="0"/>
+      <c r="L80" s="0"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="0"/>
       <c r="O80" s="0"/>
-      <c r="P80" s="0" t="n">
-        <v>776</v>
-      </c>
-      <c r="Q80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P80" s="0"/>
+      <c r="Q80" s="0"/>
+      <c r="R80" s="0"/>
       <c r="S80" s="0"/>
       <c r="T80" s="0"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="0" t="n">
-        <v>1229388</v>
-      </c>
-      <c r="W80" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V80" s="0"/>
+      <c r="W80" s="0"/>
       <c r="X80" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y80" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST</t>
         </is>
       </c>
-      <c r="Z80" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA80" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB80" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y80" s="0"/>
+      <c r="Z80" s="0"/>
+      <c r="AA80" s="0"/>
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>36861</v>
@@ -9334,456 +7088,140 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>36861</v>
-      </c>
-      <c r="C82" s="0" t="inlineStr">
-        <is>
-          <t>SENU5067160</t>
-        </is>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E82" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F82" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G82" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H82" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I82" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J82" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K82" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L82" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M82" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N82" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A82" s="0"/>
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+      <c r="F82" s="0"/>
+      <c r="G82" s="0"/>
+      <c r="H82" s="0"/>
+      <c r="I82" s="0"/>
+      <c r="J82" s="0"/>
+      <c r="K82" s="0"/>
+      <c r="L82" s="0"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="0"/>
       <c r="O82" s="0"/>
-      <c r="P82" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
+      <c r="R82" s="0"/>
       <c r="S82" s="0"/>
       <c r="T82" s="0"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="0" t="n">
-        <v>1268729</v>
-      </c>
-      <c r="W82" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V82" s="0"/>
+      <c r="W82" s="0"/>
       <c r="X82" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y82" s="0" t="inlineStr">
-        <is>
           <t>BOTH DOOR FRAME RUSTED CORROSION</t>
         </is>
       </c>
-      <c r="Z82" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA82" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB82" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y82" s="0"/>
+      <c r="Z82" s="0"/>
+      <c r="AA82" s="0"/>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="B83" s="0" t="n">
-        <v>36861</v>
-      </c>
-      <c r="C83" s="0" t="inlineStr">
-        <is>
-          <t>SENU5067160</t>
-        </is>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E83" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F83" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G83" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H83" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I83" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J83" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K83" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L83" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M83" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N83" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A83" s="0"/>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="0"/>
       <c r="O83" s="0"/>
-      <c r="P83" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
       <c r="S83" s="0"/>
       <c r="T83" s="0"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="0" t="n">
-        <v>1268729</v>
-      </c>
-      <c r="W83" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V83" s="0"/>
+      <c r="W83" s="0"/>
       <c r="X83" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y83" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST &amp; WET CONDITION </t>
         </is>
       </c>
-      <c r="Z83" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA83" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB83" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y83" s="0"/>
+      <c r="Z83" s="0"/>
+      <c r="AA83" s="0"/>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="B84" s="0" t="n">
-        <v>36861</v>
-      </c>
-      <c r="C84" s="0" t="inlineStr">
-        <is>
-          <t>SENU5067160</t>
-        </is>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E84" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F84" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G84" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H84" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I84" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J84" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K84" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L84" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M84" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N84" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A84" s="0"/>
+      <c r="B84" s="0"/>
+      <c r="C84" s="0"/>
+      <c r="D84" s="0"/>
+      <c r="E84" s="0"/>
+      <c r="F84" s="0"/>
+      <c r="G84" s="0"/>
+      <c r="H84" s="0"/>
+      <c r="I84" s="0"/>
+      <c r="J84" s="0"/>
+      <c r="K84" s="0"/>
+      <c r="L84" s="0"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="0"/>
       <c r="O84" s="0"/>
-      <c r="P84" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P84" s="0"/>
+      <c r="Q84" s="0"/>
+      <c r="R84" s="0"/>
       <c r="S84" s="0"/>
       <c r="T84" s="0"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="0" t="n">
-        <v>1268729</v>
-      </c>
-      <c r="W84" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V84" s="0"/>
+      <c r="W84" s="0"/>
       <c r="X84" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y84" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL DIRTY &amp; SCRATCHED</t>
         </is>
       </c>
-      <c r="Z84" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA84" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB84" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y84" s="0"/>
+      <c r="Z84" s="0"/>
+      <c r="AA84" s="0"/>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="B85" s="0" t="n">
-        <v>36861</v>
-      </c>
-      <c r="C85" s="0" t="inlineStr">
-        <is>
-          <t>SENU5067160</t>
-        </is>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E85" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F85" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G85" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H85" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I85" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J85" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K85" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L85" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M85" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N85" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A85" s="0"/>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="0"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="0"/>
       <c r="O85" s="0"/>
-      <c r="P85" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
       <c r="S85" s="0"/>
       <c r="T85" s="0"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="0" t="n">
-        <v>1268729</v>
-      </c>
-      <c r="W85" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V85" s="0"/>
+      <c r="W85" s="0"/>
       <c r="X85" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y85" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL RUSTED CORROSION</t>
         </is>
       </c>
-      <c r="Z85" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA85" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB85" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y85" s="0"/>
+      <c r="Z85" s="0"/>
+      <c r="AA85" s="0"/>
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>36900</v>
@@ -9895,7 +7333,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>36903</v>
@@ -9983,7 +7421,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>36904</v>
@@ -10071,7 +7509,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>36905</v>

--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_57_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_57_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="256.0898876404495" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="83.38988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="61.389887640449444"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,70 +1621,28 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST &amp; TIRE MARK.</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST &amp; TIRE MARK.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>F/B BADLY DCRATCHED.</t>
-        </is>
-      </c>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BADLY DCRATCHED.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
@@ -1799,37 +1757,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY  DROP OIL SPOT ,SCRATCHED &amp; DUST.</t>
-        </is>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY  DROP OIL SPOT ,SCRATCHED &amp; DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
@@ -1944,70 +1881,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD  BROKEN &amp; HOLE 10'X 06' + PLY WOOD MISSING 16'X 06'.</t>
-        </is>
-      </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD  BROKEN &amp; HOLE 10'X 06' + PLY WOOD MISSING 16'X 06'.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  OIL STAIN,SCRATCHED,TYER MARK &amp; BLACK STAIN DUST.</t>
-        </is>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  OIL STAIN,SCRATCHED,TYER MARK &amp; BLACK STAIN DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
@@ -2122,37 +2017,16 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD DUST &amp; OIL SPOT</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD DUST &amp; OIL SPOT", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -2267,37 +2141,16 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN &amp; BADLY SCRATCHED </t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL STAIN &amp; BADLY SCRATCHED ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -2412,37 +2265,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL &amp; FLOOR DIRTY.</t>
-        </is>
-      </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "INTERNAL PANEL &amp; FLOOR DIRTY.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
@@ -3069,70 +2901,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL  DIRTY &amp; RUSTED.</t>
-        </is>
-      </c>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL  DIRTY &amp; RUSTED.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST &amp; SCRATCHED.</t>
-        </is>
-      </c>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST &amp; SCRATCHED.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -3247,37 +3037,16 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST &amp; NORMAL OIL STAIN.</t>
-        </is>
-      </c>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST &amp; NORMAL OIL STAIN.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
@@ -3392,37 +3161,16 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0"/>
-      <c r="R31" s="0"/>
-      <c r="S31" s="0"/>
-      <c r="T31" s="0"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST</t>
-        </is>
-      </c>
-      <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
-      <c r="AA31" s="0"/>
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
@@ -3737,136 +3485,52 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION.</t>
-        </is>
-      </c>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
-      <c r="R36" s="0"/>
-      <c r="S36" s="0"/>
-      <c r="T36" s="0"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="0"/>
-      <c r="W36" s="0"/>
-      <c r="X36" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR GASKET CUT 3'</t>
-        </is>
-      </c>
-      <c r="Y36" s="0"/>
-      <c r="Z36" s="0"/>
-      <c r="AA36" s="0"/>
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR GASKET CUT 3'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
-      <c r="L37" s="0"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
-      <c r="S37" s="0"/>
-      <c r="T37" s="0"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="0"/>
-      <c r="W37" s="0"/>
-      <c r="X37" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD SCRATCHED AT VARIOUS PLS</t>
-        </is>
-      </c>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0"/>
-      <c r="AA37" s="0"/>
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD SCRATCHED AT VARIOUS PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
-      <c r="L38" s="0"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="0"/>
-      <c r="T38" s="0"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="0"/>
-      <c r="W38" s="0"/>
-      <c r="X38" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST</t>
-        </is>
-      </c>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0"/>
-      <c r="AA38" s="0"/>
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
@@ -3981,70 +3645,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
-      <c r="L40" s="0"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="0"/>
-      <c r="O40" s="0"/>
-      <c r="P40" s="0"/>
-      <c r="Q40" s="0"/>
-      <c r="R40" s="0"/>
-      <c r="S40" s="0"/>
-      <c r="T40" s="0"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="0"/>
-      <c r="W40" s="0"/>
-      <c r="X40" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD SCROW MISSING 01  PLS + GAP 24'+ 18' +12'</t>
-        </is>
-      </c>
-      <c r="Y40" s="0"/>
-      <c r="Z40" s="0"/>
-      <c r="AA40" s="0"/>
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SCROW MISSING 01  PLS + GAP 24'+ 18' +12'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="0"/>
-      <c r="T41" s="0"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY  SAND DUST</t>
-        </is>
-      </c>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
-      <c r="AA41" s="0"/>
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "REEFER CONTAINER-(REEFER CONTAINER)", "DOOR INNER PANEL-(DOOR INNER PANEL)", "FLOOR BOARD DIRTY BY  SAND DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -4247,70 +3869,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
-      <c r="L44" s="0"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="0"/>
-      <c r="O44" s="0"/>
-      <c r="P44" s="0"/>
-      <c r="Q44" s="0"/>
-      <c r="R44" s="0"/>
-      <c r="S44" s="0"/>
-      <c r="T44" s="0"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="0"/>
-      <c r="W44" s="0"/>
-      <c r="X44" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT PANEL NO 10 CORROSION HOLE 03' BUT SELECON FITTING </t>
-        </is>
-      </c>
-      <c r="Y44" s="0"/>
-      <c r="Z44" s="0"/>
-      <c r="AA44" s="0"/>
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT PANEL NO 10 CORROSION HOLE 03' BUT SELECON FITTING ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
@@ -4601,37 +4181,16 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
@@ -4746,70 +4305,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; WET CONDITION</t>
-        </is>
-      </c>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY MUD DUST &amp; WET CONDITION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="0"/>
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0"/>
-      <c r="H52" s="0"/>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY.</t>
-        </is>
-      </c>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
@@ -5012,37 +4529,16 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST</t>
-        </is>
-      </c>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AA55" s="0"/>
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
@@ -5269,37 +4765,16 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
@@ -5414,37 +4889,16 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="0"/>
-      <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST</t>
-        </is>
-      </c>
-      <c r="Y60" s="0"/>
-      <c r="Z60" s="0"/>
-      <c r="AA60" s="0"/>
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
@@ -5783,37 +5237,16 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0"/>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-      <c r="G64" s="0"/>
-      <c r="H64" s="0"/>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-      <c r="K64" s="0"/>
-      <c r="L64" s="0"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="0"/>
-      <c r="O64" s="0"/>
-      <c r="P64" s="0"/>
-      <c r="Q64" s="0"/>
-      <c r="R64" s="0"/>
-      <c r="S64" s="0"/>
-      <c r="T64" s="0"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="0"/>
-      <c r="W64" s="0"/>
-      <c r="X64" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BLACK STAIN &amp; DUST</t>
-        </is>
-      </c>
-      <c r="Y64" s="0"/>
-      <c r="Z64" s="0"/>
-      <c r="AA64" s="0"/>
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
@@ -5928,37 +5361,16 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0"/>
-      <c r="B66" s="0"/>
-      <c r="C66" s="0"/>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0"/>
-      <c r="H66" s="0"/>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
-      <c r="K66" s="0"/>
-      <c r="L66" s="0"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="0"/>
-      <c r="O66" s="0"/>
-      <c r="P66" s="0"/>
-      <c r="Q66" s="0"/>
-      <c r="R66" s="0"/>
-      <c r="S66" s="0"/>
-      <c r="T66" s="0"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="0"/>
-      <c r="W66" s="0"/>
-      <c r="X66" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST</t>
-        </is>
-      </c>
-      <c r="Y66" s="0"/>
-      <c r="Z66" s="0"/>
-      <c r="AA66" s="0"/>
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
@@ -6185,37 +5597,16 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
-      <c r="G69" s="0"/>
-      <c r="H69" s="0"/>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-      <c r="K69" s="0"/>
-      <c r="L69" s="0"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="0"/>
-      <c r="O69" s="0"/>
-      <c r="P69" s="0"/>
-      <c r="Q69" s="0"/>
-      <c r="R69" s="0"/>
-      <c r="S69" s="0"/>
-      <c r="T69" s="0"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="0"/>
-      <c r="W69" s="0"/>
-      <c r="X69" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST</t>
-        </is>
-      </c>
-      <c r="Y69" s="0"/>
-      <c r="Z69" s="0"/>
-      <c r="AA69" s="0"/>
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
@@ -6442,70 +5833,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0"/>
-      <c r="B72" s="0"/>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
-      <c r="G72" s="0"/>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="0"/>
-      <c r="L72" s="0"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="0"/>
-      <c r="O72" s="0"/>
-      <c r="P72" s="0"/>
-      <c r="Q72" s="0"/>
-      <c r="R72" s="0"/>
-      <c r="S72" s="0"/>
-      <c r="T72" s="0"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="0"/>
-      <c r="W72" s="0"/>
-      <c r="X72" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL CUT &amp; HOLE 04"X08"</t>
-        </is>
-      </c>
-      <c r="Y72" s="0"/>
-      <c r="Z72" s="0"/>
-      <c r="AA72" s="0"/>
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT &amp; HOLE 04\"X08\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="0"/>
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
-      <c r="G73" s="0"/>
-      <c r="H73" s="0"/>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-      <c r="K73" s="0"/>
-      <c r="L73" s="0"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="0"/>
-      <c r="O73" s="0"/>
-      <c r="P73" s="0"/>
-      <c r="Q73" s="0"/>
-      <c r="R73" s="0"/>
-      <c r="S73" s="0"/>
-      <c r="T73" s="0"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="0"/>
-      <c r="W73" s="0"/>
-      <c r="X73" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST</t>
-        </is>
-      </c>
-      <c r="Y73" s="0"/>
-      <c r="Z73" s="0"/>
-      <c r="AA73" s="0"/>
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY MUD DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
@@ -6732,70 +6081,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0"/>
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="0"/>
-      <c r="L76" s="0"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="0"/>
-      <c r="O76" s="0"/>
-      <c r="P76" s="0"/>
-      <c r="Q76" s="0"/>
-      <c r="R76" s="0"/>
-      <c r="S76" s="0"/>
-      <c r="T76" s="0"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="0"/>
-      <c r="W76" s="0"/>
-      <c r="X76" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y76" s="0"/>
-      <c r="Z76" s="0"/>
-      <c r="AA76" s="0"/>
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="0"/>
-      <c r="O77" s="0"/>
-      <c r="P77" s="0"/>
-      <c r="Q77" s="0"/>
-      <c r="R77" s="0"/>
-      <c r="S77" s="0"/>
-      <c r="T77" s="0"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="0"/>
-      <c r="W77" s="0"/>
-      <c r="X77" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR GASKET BENT 30' &amp; 30'</t>
-        </is>
-      </c>
-      <c r="Y77" s="0"/>
-      <c r="Z77" s="0"/>
-      <c r="AA77" s="0"/>
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR GASKET BENT 30' &amp; 30'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
@@ -6910,70 +6217,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
-      <c r="J79" s="0"/>
-      <c r="K79" s="0"/>
-      <c r="L79" s="0"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="0"/>
-      <c r="O79" s="0"/>
-      <c r="P79" s="0"/>
-      <c r="Q79" s="0"/>
-      <c r="R79" s="0"/>
-      <c r="S79" s="0"/>
-      <c r="T79" s="0"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="0"/>
-      <c r="W79" s="0"/>
-      <c r="X79" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR TOP GASKET CUT 6'</t>
-        </is>
-      </c>
-      <c r="Y79" s="0"/>
-      <c r="Z79" s="0"/>
-      <c r="AA79" s="0"/>
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR TOP GASKET CUT 6'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0"/>
-      <c r="C80" s="0"/>
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
-      <c r="F80" s="0"/>
-      <c r="G80" s="0"/>
-      <c r="H80" s="0"/>
-      <c r="I80" s="0"/>
-      <c r="J80" s="0"/>
-      <c r="K80" s="0"/>
-      <c r="L80" s="0"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="0"/>
-      <c r="O80" s="0"/>
-      <c r="P80" s="0"/>
-      <c r="Q80" s="0"/>
-      <c r="R80" s="0"/>
-      <c r="S80" s="0"/>
-      <c r="T80" s="0"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="0"/>
-      <c r="W80" s="0"/>
-      <c r="X80" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST</t>
-        </is>
-      </c>
-      <c r="Y80" s="0"/>
-      <c r="Z80" s="0"/>
-      <c r="AA80" s="0"/>
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
@@ -7088,136 +6353,52 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0"/>
-      <c r="B82" s="0"/>
-      <c r="C82" s="0"/>
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
-      <c r="F82" s="0"/>
-      <c r="G82" s="0"/>
-      <c r="H82" s="0"/>
-      <c r="I82" s="0"/>
-      <c r="J82" s="0"/>
-      <c r="K82" s="0"/>
-      <c r="L82" s="0"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="0"/>
-      <c r="O82" s="0"/>
-      <c r="P82" s="0"/>
-      <c r="Q82" s="0"/>
-      <c r="R82" s="0"/>
-      <c r="S82" s="0"/>
-      <c r="T82" s="0"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="0"/>
-      <c r="W82" s="0"/>
-      <c r="X82" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR FRAME RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y82" s="0"/>
-      <c r="Z82" s="0"/>
-      <c r="AA82" s="0"/>
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR FRAME RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-      <c r="G83" s="0"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
-      <c r="J83" s="0"/>
-      <c r="K83" s="0"/>
-      <c r="L83" s="0"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="0"/>
-      <c r="O83" s="0"/>
-      <c r="P83" s="0"/>
-      <c r="Q83" s="0"/>
-      <c r="R83" s="0"/>
-      <c r="S83" s="0"/>
-      <c r="T83" s="0"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="0"/>
-      <c r="W83" s="0"/>
-      <c r="X83" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST &amp; WET CONDITION </t>
-        </is>
-      </c>
-      <c r="Y83" s="0"/>
-      <c r="Z83" s="0"/>
-      <c r="AA83" s="0"/>
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST &amp; WET CONDITION ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="0"/>
-      <c r="B84" s="0"/>
-      <c r="C84" s="0"/>
-      <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
-      <c r="F84" s="0"/>
-      <c r="G84" s="0"/>
-      <c r="H84" s="0"/>
-      <c r="I84" s="0"/>
-      <c r="J84" s="0"/>
-      <c r="K84" s="0"/>
-      <c r="L84" s="0"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="0"/>
-      <c r="O84" s="0"/>
-      <c r="P84" s="0"/>
-      <c r="Q84" s="0"/>
-      <c r="R84" s="0"/>
-      <c r="S84" s="0"/>
-      <c r="T84" s="0"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="0"/>
-      <c r="W84" s="0"/>
-      <c r="X84" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y84" s="0"/>
-      <c r="Z84" s="0"/>
-      <c r="AA84" s="0"/>
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="0"/>
-      <c r="B85" s="0"/>
-      <c r="C85" s="0"/>
-      <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
-      <c r="F85" s="0"/>
-      <c r="G85" s="0"/>
-      <c r="H85" s="0"/>
-      <c r="I85" s="0"/>
-      <c r="J85" s="0"/>
-      <c r="K85" s="0"/>
-      <c r="L85" s="0"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="0"/>
-      <c r="O85" s="0"/>
-      <c r="P85" s="0"/>
-      <c r="Q85" s="0"/>
-      <c r="R85" s="0"/>
-      <c r="S85" s="0"/>
-      <c r="T85" s="0"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="0"/>
-      <c r="W85" s="0"/>
-      <c r="X85" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y85" s="0"/>
-      <c r="Z85" s="0"/>
-      <c r="AA85" s="0"/>
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">

--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_57_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_57_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="256.0898876404495" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1332,7 +1332,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="61.389887640449444"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="83.38988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST &amp; TIRE MARK.", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST &amp; TIRE MARK.</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1638,9 +1684,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BADLY DCRATCHED.", "", "", ""]</t>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>F/B BADLY DCRATCHED.</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1762,9 +1854,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY  DROP OIL SPOT ,SCRATCHED &amp; DUST.", "", "", ""]</t>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY  DROP OIL SPOT ,SCRATCHED &amp; DUST.</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1886,9 +2024,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD  BROKEN &amp; HOLE 10'X 06' + PLY WOOD MISSING 16'X 06'.", "", "", ""]</t>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD  BROKEN &amp; HOLE 10'X 06' + PLY WOOD MISSING 16'X 06'.</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1898,9 +2082,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  OIL STAIN,SCRATCHED,TYER MARK &amp; BLACK STAIN DUST.", "", "", ""]</t>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  OIL STAIN,SCRATCHED,TYER MARK &amp; BLACK STAIN DUST.</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2022,9 +2252,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD DUST &amp; OIL SPOT", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD DUST &amp; OIL SPOT</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2146,9 +2422,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL STAIN &amp; BADLY SCRATCHED ", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN &amp; BADLY SCRATCHED </t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2270,9 +2592,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "INTERNAL PANEL &amp; FLOOR DIRTY.", "", "", ""]</t>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL &amp; FLOOR DIRTY.</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2906,9 +3274,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL  DIRTY &amp; RUSTED.", "", "", ""]</t>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y26" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL  DIRTY &amp; RUSTED.</t>
+        </is>
+      </c>
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB26" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2918,9 +3332,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST &amp; SCRATCHED.", "", "", ""]</t>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y27" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST &amp; SCRATCHED.</t>
+        </is>
+      </c>
+      <c r="Z27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3042,9 +3502,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST &amp; NORMAL OIL STAIN.", "", "", ""]</t>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X29" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y29" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST &amp; NORMAL OIL STAIN.</t>
+        </is>
+      </c>
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB29" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3166,9 +3672,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X31" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y31" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST</t>
+        </is>
+      </c>
+      <c r="Z31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB31" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3490,9 +4042,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION.", "", "", ""]</t>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION.</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3502,9 +4100,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR GASKET CUT 3'", "", "", ""]</t>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X36" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y36" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR GASKET CUT 3'</t>
+        </is>
+      </c>
+      <c r="Z36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3514,9 +4158,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD SCRATCHED AT VARIOUS PLS", "", "", ""]</t>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X37" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y37" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD SCRATCHED AT VARIOUS PLS</t>
+        </is>
+      </c>
+      <c r="Z37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3526,9 +4216,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST", "", "", ""]</t>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X38" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y38" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST</t>
+        </is>
+      </c>
+      <c r="Z38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB38" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3650,9 +4386,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SCROW MISSING 01  PLS + GAP 24'+ 18' +12'", "", "", ""]</t>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
+      <c r="S40" s="0"/>
+      <c r="T40" s="0"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="0"/>
+      <c r="W40" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X40" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y40" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD SCROW MISSING 01  PLS + GAP 24'+ 18' +12'</t>
+        </is>
+      </c>
+      <c r="Z40" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA40" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB40" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3662,9 +4444,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "REEFER CONTAINER-(REEFER CONTAINER)", "DOOR INNER PANEL-(DOOR INNER PANEL)", "FLOOR BOARD DIRTY BY  SAND DUST", "", "", ""]</t>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0" t="inlineStr">
+        <is>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+        </is>
+      </c>
+      <c r="X41" s="0" t="inlineStr">
+        <is>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+        </is>
+      </c>
+      <c r="Y41" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY  SAND DUST</t>
+        </is>
+      </c>
+      <c r="Z41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3874,9 +4702,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT PANEL NO 10 CORROSION HOLE 03' BUT SELECON FITTING ", "", "", ""]</t>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
+      <c r="T44" s="0"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X44" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y44" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT PANEL NO 10 CORROSION HOLE 03' BUT SELECON FITTING </t>
+        </is>
+      </c>
+      <c r="Z44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB44" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3886,9 +4760,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y45" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB45" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4186,9 +5106,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL SCRATCHED", "", "", ""]</t>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X49" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y49" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB49" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4310,9 +5276,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY MUD DUST &amp; WET CONDITION", "", "", ""]</t>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X51" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y51" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; WET CONDITION</t>
+        </is>
+      </c>
+      <c r="Z51" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA51" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB51" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4322,9 +5334,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B52" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY.", "", "", ""]</t>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0"/>
+      <c r="T52" s="0"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X52" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y52" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY.</t>
+        </is>
+      </c>
+      <c r="Z52" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA52" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB52" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4534,9 +5592,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B55" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="0"/>
+      <c r="O55" s="0"/>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
+      <c r="S55" s="0"/>
+      <c r="T55" s="0"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="0"/>
+      <c r="W55" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X55" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y55" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST</t>
+        </is>
+      </c>
+      <c r="Z55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB55" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4770,9 +5874,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X58" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y58" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB58" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4894,9 +6044,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST", "", "", ""]</t>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="0"/>
+      <c r="O60" s="0"/>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
+      <c r="S60" s="0"/>
+      <c r="T60" s="0"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X60" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y60" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST</t>
+        </is>
+      </c>
+      <c r="Z60" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA60" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB60" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5242,9 +6438,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; DUST", "", "", ""]</t>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X64" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y64" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BLACK STAIN &amp; DUST</t>
+        </is>
+      </c>
+      <c r="Z64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB64" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5366,9 +6608,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B66" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="0"/>
+      <c r="O66" s="0"/>
+      <c r="P66" s="0"/>
+      <c r="Q66" s="0"/>
+      <c r="R66" s="0"/>
+      <c r="S66" s="0"/>
+      <c r="T66" s="0"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="0"/>
+      <c r="W66" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X66" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y66" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST</t>
+        </is>
+      </c>
+      <c r="Z66" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA66" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB66" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5602,9 +6890,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
+      <c r="S69" s="0"/>
+      <c r="T69" s="0"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X69" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y69" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST</t>
+        </is>
+      </c>
+      <c r="Z69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB69" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5838,9 +7172,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT &amp; HOLE 04\"X08\"", "", "", ""]</t>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="0"/>
+      <c r="O72" s="0"/>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
+      <c r="R72" s="0"/>
+      <c r="S72" s="0"/>
+      <c r="T72" s="0"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="0"/>
+      <c r="W72" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X72" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y72" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL CUT &amp; HOLE 04"X08"</t>
+        </is>
+      </c>
+      <c r="Z72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB72" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5850,9 +7230,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B73" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY MUD DUST", "", "", ""]</t>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0"/>
+      <c r="K73" s="0"/>
+      <c r="L73" s="0"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="0"/>
+      <c r="O73" s="0"/>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+      <c r="R73" s="0"/>
+      <c r="S73" s="0"/>
+      <c r="T73" s="0"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="0"/>
+      <c r="W73" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X73" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y73" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY MUD DUST</t>
+        </is>
+      </c>
+      <c r="Z73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB73" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6086,9 +7512,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
+      <c r="K76" s="0"/>
+      <c r="L76" s="0"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="0"/>
+      <c r="O76" s="0"/>
+      <c r="P76" s="0"/>
+      <c r="Q76" s="0"/>
+      <c r="R76" s="0"/>
+      <c r="S76" s="0"/>
+      <c r="T76" s="0"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="0"/>
+      <c r="W76" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X76" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y76" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z76" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6098,9 +7570,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR GASKET BENT 30' &amp; 30'", "", "", ""]</t>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
+      <c r="S77" s="0"/>
+      <c r="T77" s="0"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="0"/>
+      <c r="W77" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X77" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y77" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR GASKET BENT 30' &amp; 30'</t>
+        </is>
+      </c>
+      <c r="Z77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB77" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6222,9 +7740,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR TOP GASKET CUT 6'", "", "", ""]</t>
+      <c r="B79" s="0"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
+      <c r="K79" s="0"/>
+      <c r="L79" s="0"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="0"/>
+      <c r="O79" s="0"/>
+      <c r="P79" s="0"/>
+      <c r="Q79" s="0"/>
+      <c r="R79" s="0"/>
+      <c r="S79" s="0"/>
+      <c r="T79" s="0"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="0"/>
+      <c r="W79" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X79" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y79" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR TOP GASKET CUT 6'</t>
+        </is>
+      </c>
+      <c r="Z79" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA79" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB79" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6234,9 +7798,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B80" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+      <c r="B80" s="0"/>
+      <c r="C80" s="0"/>
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+      <c r="G80" s="0"/>
+      <c r="H80" s="0"/>
+      <c r="I80" s="0"/>
+      <c r="J80" s="0"/>
+      <c r="K80" s="0"/>
+      <c r="L80" s="0"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="0"/>
+      <c r="O80" s="0"/>
+      <c r="P80" s="0"/>
+      <c r="Q80" s="0"/>
+      <c r="R80" s="0"/>
+      <c r="S80" s="0"/>
+      <c r="T80" s="0"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="0"/>
+      <c r="W80" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X80" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y80" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST</t>
+        </is>
+      </c>
+      <c r="Z80" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA80" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB80" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6358,9 +7968,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B82" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR FRAME RUSTED CORROSION", "", "", ""]</t>
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+      <c r="F82" s="0"/>
+      <c r="G82" s="0"/>
+      <c r="H82" s="0"/>
+      <c r="I82" s="0"/>
+      <c r="J82" s="0"/>
+      <c r="K82" s="0"/>
+      <c r="L82" s="0"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0"/>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
+      <c r="R82" s="0"/>
+      <c r="S82" s="0"/>
+      <c r="T82" s="0"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="0"/>
+      <c r="W82" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X82" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y82" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR FRAME RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z82" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA82" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB82" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6370,9 +8026,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST &amp; WET CONDITION ", "", "", ""]</t>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
+      <c r="S83" s="0"/>
+      <c r="T83" s="0"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="0"/>
+      <c r="W83" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X83" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y83" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST &amp; WET CONDITION </t>
+        </is>
+      </c>
+      <c r="Z83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB83" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6382,9 +8084,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B84" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B84" s="0"/>
+      <c r="C84" s="0"/>
+      <c r="D84" s="0"/>
+      <c r="E84" s="0"/>
+      <c r="F84" s="0"/>
+      <c r="G84" s="0"/>
+      <c r="H84" s="0"/>
+      <c r="I84" s="0"/>
+      <c r="J84" s="0"/>
+      <c r="K84" s="0"/>
+      <c r="L84" s="0"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="0"/>
+      <c r="O84" s="0"/>
+      <c r="P84" s="0"/>
+      <c r="Q84" s="0"/>
+      <c r="R84" s="0"/>
+      <c r="S84" s="0"/>
+      <c r="T84" s="0"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="0"/>
+      <c r="W84" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X84" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y84" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z84" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA84" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB84" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6394,9 +8142,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B85" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="0"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
+      <c r="S85" s="0"/>
+      <c r="T85" s="0"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="0"/>
+      <c r="W85" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X85" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y85" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB85" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_57_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_57_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:45</t>
+          <t>Total number of containers:45</t>
         </is>
       </c>
     </row>
